--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121062a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121062a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>total(1)</t>
   </si>
@@ -22,7 +22,7 @@
     <t>classes de rendimento mensal domiciliar per capita (salário mínimo)</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>menosde 1/4</t>
@@ -46,18 +46,12 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
   </si>
   <si>
-    <t>grandes regiões e unidades da federação</t>
-  </si>
-  <si>
     <t>norte</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
   </si>
   <si>
     <t>distrito federal</t>
-  </si>
-  <si>
-    <t>fonte: ibge, diretoria de pesquisas, coordenação de trabalho e rendimento, pesquisa nacional por amostra de domicílios 2009.</t>
   </si>
 </sst>
 </file>
@@ -512,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,6 +577,27 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2.67</v>
+      </c>
+      <c r="D5">
+        <v>1.44</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1.02</v>
+      </c>
+      <c r="G5">
+        <v>1.77</v>
+      </c>
+      <c r="H5">
+        <v>4.76</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -595,22 +607,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.67</v>
+        <v>3.58</v>
       </c>
       <c r="D6">
-        <v>1.44</v>
+        <v>2.12</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2.06</v>
       </c>
       <c r="F6">
-        <v>1.02</v>
+        <v>3.22</v>
       </c>
       <c r="G6">
-        <v>1.77</v>
+        <v>5.7</v>
       </c>
       <c r="H6">
-        <v>4.76</v>
+        <v>13.22</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -621,28 +633,49 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.58</v>
+        <v>6.4</v>
       </c>
       <c r="D7">
-        <v>2.12</v>
+        <v>2.88</v>
       </c>
       <c r="E7">
-        <v>2.06</v>
+        <v>2.9</v>
       </c>
       <c r="F7">
-        <v>3.22</v>
+        <v>2.92</v>
       </c>
       <c r="G7">
-        <v>5.7</v>
+        <v>5.36</v>
       </c>
       <c r="H7">
-        <v>13.22</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>20.96</v>
+      </c>
+      <c r="D8">
+        <v>8.23</v>
+      </c>
+      <c r="E8">
+        <v>4.75</v>
+      </c>
+      <c r="F8">
+        <v>4.73</v>
+      </c>
+      <c r="G8">
+        <v>11.33</v>
+      </c>
+      <c r="H8">
+        <v>36.73</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -652,22 +685,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.4</v>
+        <v>13.21</v>
       </c>
       <c r="D9">
-        <v>2.88</v>
+        <v>8.57</v>
       </c>
       <c r="E9">
-        <v>2.9</v>
+        <v>7.34</v>
       </c>
       <c r="F9">
-        <v>2.92</v>
+        <v>7.3</v>
       </c>
       <c r="G9">
-        <v>5.36</v>
+        <v>17.42</v>
       </c>
       <c r="H9">
-        <v>12.75</v>
+        <v>34.26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,22 +711,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>20.96</v>
+        <v>15.81</v>
       </c>
       <c r="D10">
-        <v>8.23</v>
+        <v>4.41</v>
       </c>
       <c r="E10">
-        <v>4.75</v>
+        <v>7.24</v>
       </c>
       <c r="F10">
-        <v>4.73</v>
+        <v>6.92</v>
       </c>
       <c r="G10">
-        <v>11.33</v>
+        <v>11.2</v>
       </c>
       <c r="H10">
-        <v>36.73</v>
+        <v>22.95</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,22 +737,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.21</v>
+        <v>16.28</v>
       </c>
       <c r="D11">
-        <v>8.57</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>7.34</v>
+        <v>8.08</v>
       </c>
       <c r="F11">
-        <v>7.3</v>
+        <v>9.99</v>
       </c>
       <c r="G11">
-        <v>17.42</v>
+        <v>18.03</v>
       </c>
       <c r="H11">
-        <v>34.26</v>
+        <v>41.44</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,22 +763,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.81</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="D12">
-        <v>4.41</v>
+        <v>5.54</v>
       </c>
       <c r="E12">
-        <v>7.24</v>
+        <v>5.47</v>
       </c>
       <c r="F12">
-        <v>6.92</v>
+        <v>6.71</v>
       </c>
       <c r="G12">
-        <v>11.2</v>
+        <v>12.3</v>
       </c>
       <c r="H12">
-        <v>22.95</v>
+        <v>21.38</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>16.28</v>
+        <v>34.51</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="E13">
-        <v>8.08</v>
+        <v>10.83</v>
       </c>
       <c r="F13">
-        <v>9.99</v>
+        <v>20.72</v>
       </c>
       <c r="G13">
-        <v>18.03</v>
+        <v>18.68</v>
       </c>
       <c r="H13">
-        <v>41.44</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,22 +815,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.609999999999999</v>
+        <v>15.53</v>
       </c>
       <c r="D14">
-        <v>5.54</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="E14">
-        <v>5.47</v>
+        <v>4.64</v>
       </c>
       <c r="F14">
-        <v>6.71</v>
+        <v>5.44</v>
       </c>
       <c r="G14">
-        <v>12.3</v>
+        <v>11.13</v>
       </c>
       <c r="H14">
-        <v>21.38</v>
+        <v>48.87</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,22 +841,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>34.51</v>
+        <v>3.21</v>
       </c>
       <c r="D15">
-        <v>8.550000000000001</v>
+        <v>1.82</v>
       </c>
       <c r="E15">
-        <v>10.83</v>
+        <v>2.08</v>
       </c>
       <c r="F15">
-        <v>20.72</v>
+        <v>2.88</v>
       </c>
       <c r="G15">
-        <v>18.68</v>
+        <v>5.23</v>
       </c>
       <c r="H15">
-        <v>49.9</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>15.53</v>
+        <v>16.99</v>
       </c>
       <c r="D16">
-        <v>9.880000000000001</v>
+        <v>7.03</v>
       </c>
       <c r="E16">
-        <v>4.64</v>
+        <v>10.24</v>
       </c>
       <c r="F16">
-        <v>5.44</v>
+        <v>17.59</v>
       </c>
       <c r="G16">
-        <v>11.13</v>
+        <v>26.83</v>
       </c>
       <c r="H16">
-        <v>48.87</v>
+        <v>22.78</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,22 +893,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.21</v>
+        <v>7.72</v>
       </c>
       <c r="D17">
-        <v>1.82</v>
+        <v>4.94</v>
       </c>
       <c r="E17">
-        <v>2.08</v>
+        <v>6.83</v>
       </c>
       <c r="F17">
-        <v>2.88</v>
+        <v>10.64</v>
       </c>
       <c r="G17">
-        <v>5.23</v>
+        <v>20</v>
       </c>
       <c r="H17">
-        <v>9.56</v>
+        <v>46.57</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,22 +919,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>16.99</v>
+        <v>7.39</v>
       </c>
       <c r="D18">
-        <v>7.03</v>
+        <v>3.65</v>
       </c>
       <c r="E18">
-        <v>10.24</v>
+        <v>5.98</v>
       </c>
       <c r="F18">
-        <v>17.59</v>
+        <v>4.34</v>
       </c>
       <c r="G18">
-        <v>26.83</v>
+        <v>12.26</v>
       </c>
       <c r="H18">
-        <v>22.78</v>
+        <v>18.09</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,22 +945,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.72</v>
+        <v>6.58</v>
       </c>
       <c r="D19">
-        <v>4.94</v>
+        <v>5.8</v>
       </c>
       <c r="E19">
-        <v>6.83</v>
+        <v>6.32</v>
       </c>
       <c r="F19">
-        <v>10.64</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="G19">
-        <v>20</v>
+        <v>16.62</v>
       </c>
       <c r="H19">
-        <v>46.57</v>
+        <v>41.62</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,22 +971,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.39</v>
+        <v>6.01</v>
       </c>
       <c r="D20">
-        <v>3.65</v>
+        <v>8.18</v>
       </c>
       <c r="E20">
-        <v>5.98</v>
+        <v>4.42</v>
       </c>
       <c r="F20">
-        <v>4.34</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="G20">
-        <v>12.26</v>
+        <v>19.72</v>
       </c>
       <c r="H20">
-        <v>18.09</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,22 +997,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.58</v>
+        <v>7.11</v>
       </c>
       <c r="D21">
-        <v>5.8</v>
+        <v>3.89</v>
       </c>
       <c r="E21">
-        <v>6.32</v>
+        <v>5.26</v>
       </c>
       <c r="F21">
-        <v>8.039999999999999</v>
+        <v>4.77</v>
       </c>
       <c r="G21">
-        <v>16.62</v>
+        <v>10.79</v>
       </c>
       <c r="H21">
-        <v>41.62</v>
+        <v>13.41</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.01</v>
+        <v>5.54</v>
       </c>
       <c r="D22">
-        <v>8.18</v>
+        <v>4.39</v>
       </c>
       <c r="E22">
-        <v>4.42</v>
+        <v>8.4</v>
       </c>
       <c r="F22">
-        <v>8.869999999999999</v>
+        <v>11.89</v>
       </c>
       <c r="G22">
-        <v>19.72</v>
+        <v>24.1</v>
       </c>
       <c r="H22">
-        <v>25.6</v>
+        <v>14.49</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,22 +1049,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.11</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="D23">
-        <v>3.89</v>
+        <v>5.88</v>
       </c>
       <c r="E23">
-        <v>5.26</v>
+        <v>7.68</v>
       </c>
       <c r="F23">
-        <v>4.77</v>
+        <v>8.15</v>
       </c>
       <c r="G23">
-        <v>10.79</v>
+        <v>12.83</v>
       </c>
       <c r="H23">
-        <v>13.41</v>
+        <v>28.65</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,22 +1075,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.54</v>
+        <v>5.04</v>
       </c>
       <c r="D24">
-        <v>4.39</v>
+        <v>3.76</v>
       </c>
       <c r="E24">
-        <v>8.4</v>
+        <v>3.25</v>
       </c>
       <c r="F24">
-        <v>11.89</v>
+        <v>5.1</v>
       </c>
       <c r="G24">
-        <v>24.1</v>
+        <v>9.19</v>
       </c>
       <c r="H24">
-        <v>14.49</v>
+        <v>21.97</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.970000000000001</v>
+        <v>5.27</v>
       </c>
       <c r="D25">
-        <v>5.88</v>
+        <v>2.35</v>
       </c>
       <c r="E25">
-        <v>7.68</v>
+        <v>1.42</v>
       </c>
       <c r="F25">
-        <v>8.15</v>
+        <v>1.43</v>
       </c>
       <c r="G25">
-        <v>12.83</v>
+        <v>2.57</v>
       </c>
       <c r="H25">
-        <v>28.65</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,22 +1127,22 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>5.04</v>
+        <v>9.06</v>
       </c>
       <c r="D26">
-        <v>3.76</v>
+        <v>3.34</v>
       </c>
       <c r="E26">
-        <v>3.25</v>
+        <v>2.08</v>
       </c>
       <c r="F26">
-        <v>5.1</v>
+        <v>2.49</v>
       </c>
       <c r="G26">
-        <v>9.19</v>
+        <v>4.32</v>
       </c>
       <c r="H26">
-        <v>21.97</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,22 +1153,22 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>5.27</v>
+        <v>18.04</v>
       </c>
       <c r="D27">
-        <v>2.35</v>
+        <v>6.78</v>
       </c>
       <c r="E27">
-        <v>1.42</v>
+        <v>4.75</v>
       </c>
       <c r="F27">
-        <v>1.43</v>
+        <v>4.93</v>
       </c>
       <c r="G27">
-        <v>2.57</v>
+        <v>9.56</v>
       </c>
       <c r="H27">
-        <v>7.49</v>
+        <v>32.83</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,22 +1179,22 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>9.06</v>
+        <v>8.1</v>
       </c>
       <c r="D28">
-        <v>3.34</v>
+        <v>5.12</v>
       </c>
       <c r="E28">
-        <v>2.08</v>
+        <v>2.9</v>
       </c>
       <c r="F28">
-        <v>2.49</v>
+        <v>2.47</v>
       </c>
       <c r="G28">
-        <v>4.32</v>
+        <v>4.42</v>
       </c>
       <c r="H28">
-        <v>14.55</v>
+        <v>15.31</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,22 +1205,22 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>18.04</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="D29">
-        <v>6.78</v>
+        <v>4.42</v>
       </c>
       <c r="E29">
-        <v>4.75</v>
+        <v>2.43</v>
       </c>
       <c r="F29">
-        <v>4.93</v>
+        <v>2.18</v>
       </c>
       <c r="G29">
-        <v>9.56</v>
+        <v>3.83</v>
       </c>
       <c r="H29">
-        <v>32.83</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,22 +1231,22 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>8.1</v>
+        <v>7.09</v>
       </c>
       <c r="D30">
-        <v>5.12</v>
+        <v>4.21</v>
       </c>
       <c r="E30">
-        <v>2.9</v>
+        <v>2.39</v>
       </c>
       <c r="F30">
-        <v>2.47</v>
+        <v>1.84</v>
       </c>
       <c r="G30">
-        <v>4.42</v>
+        <v>3.32</v>
       </c>
       <c r="H30">
-        <v>15.31</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>8.720000000000001</v>
+        <v>12.05</v>
       </c>
       <c r="D31">
-        <v>4.42</v>
+        <v>5.85</v>
       </c>
       <c r="E31">
-        <v>2.43</v>
+        <v>3.85</v>
       </c>
       <c r="F31">
-        <v>2.18</v>
+        <v>3.24</v>
       </c>
       <c r="G31">
-        <v>3.83</v>
+        <v>5.66</v>
       </c>
       <c r="H31">
-        <v>10.95</v>
+        <v>18.05</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,22 +1283,22 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>7.09</v>
+        <v>24.22</v>
       </c>
       <c r="D32">
-        <v>4.21</v>
+        <v>10.48</v>
       </c>
       <c r="E32">
-        <v>2.39</v>
+        <v>5.7</v>
       </c>
       <c r="F32">
-        <v>1.84</v>
+        <v>3.3</v>
       </c>
       <c r="G32">
-        <v>3.32</v>
+        <v>7.24</v>
       </c>
       <c r="H32">
-        <v>11.23</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,22 +1309,22 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>12.05</v>
+        <v>7.79</v>
       </c>
       <c r="D33">
-        <v>5.85</v>
+        <v>6.79</v>
       </c>
       <c r="E33">
-        <v>3.85</v>
+        <v>3.52</v>
       </c>
       <c r="F33">
-        <v>3.24</v>
+        <v>2.93</v>
       </c>
       <c r="G33">
-        <v>5.66</v>
+        <v>4.39</v>
       </c>
       <c r="H33">
-        <v>18.05</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>24.22</v>
+        <v>7.66</v>
       </c>
       <c r="D34">
-        <v>10.48</v>
+        <v>4.08</v>
       </c>
       <c r="E34">
-        <v>5.7</v>
+        <v>2.08</v>
       </c>
       <c r="F34">
-        <v>3.3</v>
+        <v>2.33</v>
       </c>
       <c r="G34">
-        <v>7.24</v>
+        <v>4.19</v>
       </c>
       <c r="H34">
-        <v>22.6</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,22 +1361,22 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>7.79</v>
+        <v>16.93</v>
       </c>
       <c r="D35">
-        <v>6.79</v>
+        <v>10.39</v>
       </c>
       <c r="E35">
-        <v>3.52</v>
+        <v>5.46</v>
       </c>
       <c r="F35">
-        <v>2.93</v>
+        <v>5.54</v>
       </c>
       <c r="G35">
-        <v>4.39</v>
+        <v>10.84</v>
       </c>
       <c r="H35">
-        <v>18.7</v>
+        <v>20.43</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,22 +1387,22 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>7.66</v>
+        <v>17.96</v>
       </c>
       <c r="D36">
-        <v>4.08</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E36">
-        <v>2.08</v>
+        <v>3.09</v>
       </c>
       <c r="F36">
-        <v>2.33</v>
+        <v>6.17</v>
       </c>
       <c r="G36">
-        <v>4.19</v>
+        <v>13.85</v>
       </c>
       <c r="H36">
-        <v>12.5</v>
+        <v>28.45</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,22 +1413,22 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>16.93</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D37">
-        <v>10.39</v>
+        <v>4.93</v>
       </c>
       <c r="E37">
-        <v>5.46</v>
+        <v>3.01</v>
       </c>
       <c r="F37">
-        <v>5.54</v>
+        <v>2.75</v>
       </c>
       <c r="G37">
-        <v>10.84</v>
+        <v>5.9</v>
       </c>
       <c r="H37">
-        <v>20.43</v>
+        <v>19.71</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,79 +1439,22 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>17.96</v>
+        <v>20.66</v>
       </c>
       <c r="D38">
-        <v>9.529999999999999</v>
+        <v>10.22</v>
       </c>
       <c r="E38">
-        <v>3.09</v>
+        <v>7.8</v>
       </c>
       <c r="F38">
-        <v>6.17</v>
+        <v>6.28</v>
       </c>
       <c r="G38">
-        <v>13.85</v>
+        <v>6</v>
       </c>
       <c r="H38">
-        <v>28.45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="D39">
-        <v>4.93</v>
-      </c>
-      <c r="E39">
-        <v>3.01</v>
-      </c>
-      <c r="F39">
-        <v>2.75</v>
-      </c>
-      <c r="G39">
-        <v>5.9</v>
-      </c>
-      <c r="H39">
-        <v>19.71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>20.66</v>
-      </c>
-      <c r="D40">
-        <v>10.22</v>
-      </c>
-      <c r="E40">
-        <v>7.8</v>
-      </c>
-      <c r="F40">
-        <v>6.28</v>
-      </c>
-      <c r="G40">
-        <v>6</v>
-      </c>
-      <c r="H40">
         <v>21.46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
